--- a/SFP.SIT/src/SFP.SIT.WEB/wwwroot/demo.xlsx
+++ b/SFP.SIT/src/SFP.SIT.WEB/wwwroot/demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -35,19 +35,22 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>62354784</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>2700001017</t>
+  </si>
+  <si>
+    <t>02/01/2017 12:00</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>dada la respuestacon numero 0002700250316 se solicita la escolaridad primaria secundaria preparatoria licenciatura etc del la funcionaria publca&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -124,7 +127,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -132,36 +135,454 @@
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0">
-        <v>5000</v>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>6</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>8</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>9</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>10</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>11</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>12</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>13</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>14</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>15</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>16</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>17</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>18</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>19</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>20</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/SFP.SIT/src/SFP.SIT.WEB/wwwroot/demo.xlsx
+++ b/SFP.SIT/src/SFP.SIT.WEB/wwwroot/demo.xlsx
@@ -41,7 +41,7 @@
     <t>02/01/2017 12:00</t>
   </si>
   <si>
-    <t>INFORMACIÓN PÚBLICA</t>
+    <t>SOLICITUD INFORMACIÓN PÚBLICA</t>
   </si>
   <si>
     <t>294</t>
